--- a/Report Document/Unit Testing.xlsx
+++ b/Report Document/Unit Testing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hkustconnect-my.sharepoint.com/personal/wyloan_connect_ust_hk/Documents/COMP3111_Team55/Reports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hnlaw\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C56E14B-CF59-41F2-8D9A-C87B29885C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14E8174C-B271-4AE6-AA74-C3FE37BF4F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="94">
   <si>
     <t>BigMainGUI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,10 +166,6 @@
     <t>EntryPointGeneratorTest</t>
   </si>
   <si>
-    <t>49-50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>initializeMazeTest</t>
   </si>
   <si>
@@ -182,8 +178,7 @@
     <t>getValidNeighborsTest</t>
   </si>
   <si>
-    <t>148-153, 177-182</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>149,153-158, 166-169,171-173, 181-187, 192,196-201</t>
   </si>
   <si>
     <t>cellOnGrid</t>
@@ -332,8 +327,7 @@
     <t>GameMazeGUI_start</t>
   </si>
   <si>
-    <t>158-161, 163, 165-166, 172-174</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>179-182, 184, 186,187, 193-195</t>
   </si>
   <si>
     <t>testSceneOnKeyPress</t>
@@ -361,7 +355,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,14 +405,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -434,7 +428,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -732,11 +726,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.4"/>
+  <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -744,7 +738,7 @@
     <col min="5" max="5" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -760,14 +754,14 @@
     <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
@@ -778,7 +772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -804,7 +798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -830,7 +824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -856,7 +850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -882,7 +876,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -908,7 +902,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -934,7 +928,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -960,17 +954,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="C11" s="4" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -996,7 +990,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -1023,7 +1017,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -1035,24 +1029,24 @@
         <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="B15" s="1" t="str">
         <f>"MazeGenerator."&amp;E12&amp;"()"</f>
@@ -1077,9 +1071,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1" t="str">
         <f>"MazeGenerator."&amp;F12&amp;"()"</f>
@@ -1104,9 +1098,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1" t="str">
         <f>"MazeGenerator."&amp;G12&amp;"()"</f>
@@ -1131,9 +1125,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="1" t="str">
         <f>"MazeGenerator."&amp;H12&amp;"()"</f>
@@ -1155,21 +1149,21 @@
         <v>18</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="C21" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -1177,30 +1171,30 @@
         <v>6</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="B23" s="1" t="str">
         <f>"MazeGenerator."&amp;C22&amp;"()"</f>
@@ -1228,9 +1222,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="1" t="str">
         <f>"MazeGenerator."&amp;D22&amp;"()"</f>
@@ -1258,9 +1252,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" s="1" t="str">
         <f>"MazeGenerator."&amp;E22&amp;"()"</f>
@@ -1288,9 +1282,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="1" t="str">
         <f>"MazeGenerator."&amp;F22&amp;"()"</f>
@@ -1318,9 +1312,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="1" t="str">
         <f>"MazeGenerator."&amp;G22&amp;"()"</f>
@@ -1348,9 +1342,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" s="1" t="str">
         <f>"MazeGenerator."&amp;H22&amp;"()"</f>
@@ -1378,9 +1372,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" s="1" t="str">
         <f>"MazeGenerator."&amp;I22&amp;"()"</f>
@@ -1408,21 +1402,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -1430,7 +1424,7 @@
         <v>6</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>9</v>
@@ -1442,9 +1436,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" s="1" t="str">
         <f>C31&amp;"."&amp;C32&amp;"()"</f>
@@ -1463,9 +1457,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" s="1" t="str">
         <f>D31&amp;"."&amp;D32&amp;"()"</f>
@@ -1484,9 +1478,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B35" s="1" t="str">
         <f>E31&amp;"."&amp;E32&amp;"()"</f>
@@ -1505,9 +1499,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" s="1" t="str">
         <f>F31&amp;"."&amp;F32&amp;"()"</f>
@@ -1526,18 +1520,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
-      <c r="C38" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C38" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
@@ -1545,30 +1539,30 @@
         <v>6</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A40" s="2" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="B40" s="1" t="str">
         <f>C38&amp;"."&amp;C39&amp;"()"</f>
@@ -1596,9 +1590,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B41" s="1" t="str">
         <f>C38&amp;"."&amp;D39&amp;"()"</f>
@@ -1626,9 +1620,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B42" s="1" t="str">
         <f>C38&amp;"."&amp;E39&amp;"()"</f>
@@ -1656,9 +1650,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B43" s="1" t="str">
         <f>C38&amp;"."&amp;F39&amp;"()"</f>
@@ -1686,9 +1680,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B44" s="1" t="str">
         <f>C38&amp;"."&amp;G39&amp;"()"</f>
@@ -1716,9 +1710,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B45" s="1" t="str">
         <f>C38&amp;"."&amp;H39&amp;"()"</f>
@@ -1746,9 +1740,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B46" s="1" t="str">
         <f>C38&amp;"."&amp;I39&amp;"()"</f>
@@ -1776,18 +1770,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
-      <c r="C48" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C48" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>5</v>
       </c>
@@ -1795,30 +1789,30 @@
         <v>6</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="I49" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I49" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B50" s="1" t="str">
         <f>C48&amp;"."&amp;C49&amp;"()"</f>
@@ -1846,9 +1840,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B51" s="1" t="str">
         <f>C48&amp;"."&amp;D49&amp;"()"</f>
@@ -1876,9 +1870,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B52" s="1" t="str">
         <f>C48&amp;"."&amp;E49&amp;"()"</f>
@@ -1906,9 +1900,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B53" s="1" t="str">
         <f>C48&amp;"."&amp;F49&amp;"()"</f>
@@ -1936,9 +1930,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B54" s="1" t="str">
         <f>C48&amp;"."&amp;G49&amp;"()"</f>
@@ -1966,9 +1960,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B55" s="1" t="str">
         <f>C48&amp;"."&amp;H49&amp;"()"</f>
@@ -1996,9 +1990,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B56" s="1" t="str">
         <f>C48&amp;"."&amp;I49&amp;"()"</f>
@@ -2026,24 +2020,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C58" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="E58" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>5</v>
       </c>
@@ -2051,30 +2045,30 @@
         <v>6</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="F59" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B60" s="1" t="str">
         <f>C58&amp;"."&amp;C59&amp;"()"</f>
@@ -2102,9 +2096,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B61" s="1" t="str">
         <f>D58&amp;"."&amp;D59&amp;"()"</f>
@@ -2132,9 +2126,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B62" s="1" t="str">
         <f>E58&amp;"."&amp;E59&amp;"()"</f>
@@ -2162,9 +2156,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B63" s="1" t="str">
         <f>E58&amp;"."&amp;F59&amp;"()"</f>
@@ -2192,9 +2186,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B64" s="1" t="str">
         <f>E58&amp;"."&amp;G59&amp;"()"</f>
@@ -2213,18 +2207,18 @@
         <v>18</v>
       </c>
       <c r="G64" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A65" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="B65" s="1" t="str">
         <f>E58&amp;"."&amp;H59&amp;"()"</f>
@@ -2252,9 +2246,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B66" s="1" t="str">
         <f>I58&amp;"."&amp;I59&amp;"()"</f>
@@ -2282,18 +2276,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C68" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>5</v>
       </c>
@@ -2301,18 +2295,18 @@
         <v>6</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B70" s="1" t="str">
         <f>C68&amp;"."&amp;C69&amp;"()"</f>
@@ -2328,9 +2322,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B71" s="1" t="str">
         <f>D68&amp;"."&amp;D69&amp;"()"</f>
@@ -2346,9 +2340,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B72" s="1" t="str">
         <f>E68&amp;"."&amp;E69&amp;"()"</f>
